--- a/Homeworks/Day 06/tabela_danych.xlsx
+++ b/Homeworks/Day 06/tabela_danych.xlsx
@@ -77,8 +77,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -149,8 +150,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -174,76 +183,76 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="2" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="2" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>50</v>
       </c>
     </row>
